--- a/documents/comparison_wt_runs_20161103.xlsx
+++ b/documents/comparison_wt_runs_20161103.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="wt_network_weights" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="threshold_b_comparison" sheetId="7" r:id="rId7"/>
     <sheet name="pro_rates_wt" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,12 +151,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.00000000"/>
-    <numFmt numFmtId="166" formatCode="0.0000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,12 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +466,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1382,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,7 +2298,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3482,7 +3473,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4393,7 +4384,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B8" sqref="B8:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,7 +4404,7 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <f>optimization_diagnostics_wt!B2-'optimization_diagnostics_wt(1)'!B2</f>
         <v>0</v>
       </c>
@@ -4422,7 +4413,7 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <f>optimization_diagnostics_wt!B3-'optimization_diagnostics_wt(1)'!B3</f>
         <v>0</v>
       </c>
@@ -4431,7 +4422,7 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <f>optimization_diagnostics_wt!B4-'optimization_diagnostics_wt(1)'!B4</f>
         <v>0</v>
       </c>
@@ -4440,7 +4431,7 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <f>optimization_diagnostics_wt!B5-'optimization_diagnostics_wt(1)'!B5</f>
         <v>0</v>
       </c>
@@ -4477,27 +4468,27 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <f>optimization_diagnostics_wt!B8-'optimization_diagnostics_wt(1)'!B8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <f>optimization_diagnostics_wt!C8-'optimization_diagnostics_wt(1)'!C8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <f>optimization_diagnostics_wt!D8-'optimization_diagnostics_wt(1)'!D8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <f>optimization_diagnostics_wt!E8-'optimization_diagnostics_wt(1)'!E8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <f>optimization_diagnostics_wt!F8-'optimization_diagnostics_wt(1)'!F8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <f>optimization_diagnostics_wt!G8-'optimization_diagnostics_wt(1)'!G8</f>
         <v>0</v>
       </c>
@@ -4506,27 +4497,27 @@
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <f>optimization_diagnostics_wt!B9-'optimization_diagnostics_wt(1)'!B9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <f>optimization_diagnostics_wt!C9-'optimization_diagnostics_wt(1)'!C9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <f>optimization_diagnostics_wt!D9-'optimization_diagnostics_wt(1)'!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <f>optimization_diagnostics_wt!E9-'optimization_diagnostics_wt(1)'!E9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <f>optimization_diagnostics_wt!F9-'optimization_diagnostics_wt(1)'!F9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <f>optimization_diagnostics_wt!G9-'optimization_diagnostics_wt(1)'!G9</f>
         <v>0</v>
       </c>
@@ -4535,27 +4526,27 @@
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <f>optimization_diagnostics_wt!B10-'optimization_diagnostics_wt(1)'!B10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <f>optimization_diagnostics_wt!C10-'optimization_diagnostics_wt(1)'!C10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <f>optimization_diagnostics_wt!D10-'optimization_diagnostics_wt(1)'!D10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <f>optimization_diagnostics_wt!E10-'optimization_diagnostics_wt(1)'!E10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <f>optimization_diagnostics_wt!F10-'optimization_diagnostics_wt(1)'!F10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <f>optimization_diagnostics_wt!G10-'optimization_diagnostics_wt(1)'!G10</f>
         <v>0</v>
       </c>
@@ -4564,27 +4555,27 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <f>optimization_diagnostics_wt!B11-'optimization_diagnostics_wt(1)'!B11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <f>optimization_diagnostics_wt!C11-'optimization_diagnostics_wt(1)'!C11</f>
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <f>optimization_diagnostics_wt!D11-'optimization_diagnostics_wt(1)'!D11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <f>optimization_diagnostics_wt!E11-'optimization_diagnostics_wt(1)'!E11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <f>optimization_diagnostics_wt!F11-'optimization_diagnostics_wt(1)'!F11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <f>optimization_diagnostics_wt!G11-'optimization_diagnostics_wt(1)'!G11</f>
         <v>0</v>
       </c>
@@ -4593,27 +4584,27 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <f>optimization_diagnostics_wt!B12-'optimization_diagnostics_wt(1)'!B12</f>
         <v>0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <f>optimization_diagnostics_wt!C12-'optimization_diagnostics_wt(1)'!C12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <f>optimization_diagnostics_wt!D12-'optimization_diagnostics_wt(1)'!D12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <f>optimization_diagnostics_wt!E12-'optimization_diagnostics_wt(1)'!E12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <f>optimization_diagnostics_wt!F12-'optimization_diagnostics_wt(1)'!F12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <f>optimization_diagnostics_wt!G12-'optimization_diagnostics_wt(1)'!G12</f>
         <v>0</v>
       </c>
@@ -4622,27 +4613,27 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <f>optimization_diagnostics_wt!B13-'optimization_diagnostics_wt(1)'!B13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <f>optimization_diagnostics_wt!C13-'optimization_diagnostics_wt(1)'!C13</f>
         <v>0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <f>optimization_diagnostics_wt!D13-'optimization_diagnostics_wt(1)'!D13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <f>optimization_diagnostics_wt!E13-'optimization_diagnostics_wt(1)'!E13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <f>optimization_diagnostics_wt!F13-'optimization_diagnostics_wt(1)'!F13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <f>optimization_diagnostics_wt!G13-'optimization_diagnostics_wt(1)'!G13</f>
         <v>0</v>
       </c>
@@ -4651,27 +4642,27 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <f>optimization_diagnostics_wt!B14-'optimization_diagnostics_wt(1)'!B14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <f>optimization_diagnostics_wt!C14-'optimization_diagnostics_wt(1)'!C14</f>
         <v>0</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <f>optimization_diagnostics_wt!D14-'optimization_diagnostics_wt(1)'!D14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <f>optimization_diagnostics_wt!E14-'optimization_diagnostics_wt(1)'!E14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <f>optimization_diagnostics_wt!F14-'optimization_diagnostics_wt(1)'!F14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <f>optimization_diagnostics_wt!G14-'optimization_diagnostics_wt(1)'!G14</f>
         <v>0</v>
       </c>
@@ -4680,27 +4671,27 @@
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <f>optimization_diagnostics_wt!B15-'optimization_diagnostics_wt(1)'!B15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <f>optimization_diagnostics_wt!C15-'optimization_diagnostics_wt(1)'!C15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <f>optimization_diagnostics_wt!D15-'optimization_diagnostics_wt(1)'!D15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <f>optimization_diagnostics_wt!E15-'optimization_diagnostics_wt(1)'!E15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <f>optimization_diagnostics_wt!F15-'optimization_diagnostics_wt(1)'!F15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <f>optimization_diagnostics_wt!G15-'optimization_diagnostics_wt(1)'!G15</f>
         <v>0</v>
       </c>
@@ -4709,27 +4700,27 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <f>optimization_diagnostics_wt!B16-'optimization_diagnostics_wt(1)'!B16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <f>optimization_diagnostics_wt!C16-'optimization_diagnostics_wt(1)'!C16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <f>optimization_diagnostics_wt!D16-'optimization_diagnostics_wt(1)'!D16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <f>optimization_diagnostics_wt!E16-'optimization_diagnostics_wt(1)'!E16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <f>optimization_diagnostics_wt!F16-'optimization_diagnostics_wt(1)'!F16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <f>optimization_diagnostics_wt!G16-'optimization_diagnostics_wt(1)'!G16</f>
         <v>0</v>
       </c>
@@ -4738,27 +4729,27 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <f>optimization_diagnostics_wt!B17-'optimization_diagnostics_wt(1)'!B17</f>
         <v>0</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <f>optimization_diagnostics_wt!C17-'optimization_diagnostics_wt(1)'!C17</f>
         <v>0</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <f>optimization_diagnostics_wt!D17-'optimization_diagnostics_wt(1)'!D17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="1">
         <f>optimization_diagnostics_wt!E17-'optimization_diagnostics_wt(1)'!E17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <f>optimization_diagnostics_wt!F17-'optimization_diagnostics_wt(1)'!F17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <f>optimization_diagnostics_wt!G17-'optimization_diagnostics_wt(1)'!G17</f>
         <v>0</v>
       </c>
@@ -4767,27 +4758,27 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <f>optimization_diagnostics_wt!B18-'optimization_diagnostics_wt(1)'!B18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <f>optimization_diagnostics_wt!C18-'optimization_diagnostics_wt(1)'!C18</f>
         <v>0</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <f>optimization_diagnostics_wt!D18-'optimization_diagnostics_wt(1)'!D18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <f>optimization_diagnostics_wt!E18-'optimization_diagnostics_wt(1)'!E18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <f>optimization_diagnostics_wt!F18-'optimization_diagnostics_wt(1)'!F18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <f>optimization_diagnostics_wt!G18-'optimization_diagnostics_wt(1)'!G18</f>
         <v>0</v>
       </c>
@@ -4796,27 +4787,27 @@
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <f>optimization_diagnostics_wt!B19-'optimization_diagnostics_wt(1)'!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <f>optimization_diagnostics_wt!C19-'optimization_diagnostics_wt(1)'!C19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <f>optimization_diagnostics_wt!D19-'optimization_diagnostics_wt(1)'!D19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="1">
         <f>optimization_diagnostics_wt!E19-'optimization_diagnostics_wt(1)'!E19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <f>optimization_diagnostics_wt!F19-'optimization_diagnostics_wt(1)'!F19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <f>optimization_diagnostics_wt!G19-'optimization_diagnostics_wt(1)'!G19</f>
         <v>0</v>
       </c>
@@ -4825,27 +4816,27 @@
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <f>optimization_diagnostics_wt!B20-'optimization_diagnostics_wt(1)'!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <f>optimization_diagnostics_wt!C20-'optimization_diagnostics_wt(1)'!C20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <f>optimization_diagnostics_wt!D20-'optimization_diagnostics_wt(1)'!D20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <f>optimization_diagnostics_wt!E20-'optimization_diagnostics_wt(1)'!E20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <f>optimization_diagnostics_wt!F20-'optimization_diagnostics_wt(1)'!F20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <f>optimization_diagnostics_wt!G20-'optimization_diagnostics_wt(1)'!G20</f>
         <v>0</v>
       </c>
@@ -4854,27 +4845,27 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <f>optimization_diagnostics_wt!B21-'optimization_diagnostics_wt(1)'!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <f>optimization_diagnostics_wt!C21-'optimization_diagnostics_wt(1)'!C21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <f>optimization_diagnostics_wt!D21-'optimization_diagnostics_wt(1)'!D21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <f>optimization_diagnostics_wt!E21-'optimization_diagnostics_wt(1)'!E21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <f>optimization_diagnostics_wt!F21-'optimization_diagnostics_wt(1)'!F21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <f>optimization_diagnostics_wt!G21-'optimization_diagnostics_wt(1)'!G21</f>
         <v>0</v>
       </c>
@@ -4883,27 +4874,27 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="1">
         <f>optimization_diagnostics_wt!B22-'optimization_diagnostics_wt(1)'!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <f>optimization_diagnostics_wt!C22-'optimization_diagnostics_wt(1)'!C22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <f>optimization_diagnostics_wt!D22-'optimization_diagnostics_wt(1)'!D22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="1">
         <f>optimization_diagnostics_wt!E22-'optimization_diagnostics_wt(1)'!E22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
         <f>optimization_diagnostics_wt!F22-'optimization_diagnostics_wt(1)'!F22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <f>optimization_diagnostics_wt!G22-'optimization_diagnostics_wt(1)'!G22</f>
         <v>0</v>
       </c>
@@ -4912,27 +4903,27 @@
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="1">
         <f>optimization_diagnostics_wt!B23-'optimization_diagnostics_wt(1)'!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <f>optimization_diagnostics_wt!C23-'optimization_diagnostics_wt(1)'!C23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <f>optimization_diagnostics_wt!D23-'optimization_diagnostics_wt(1)'!D23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="1">
         <f>optimization_diagnostics_wt!E23-'optimization_diagnostics_wt(1)'!E23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
         <f>optimization_diagnostics_wt!F23-'optimization_diagnostics_wt(1)'!F23</f>
         <v>0</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <f>optimization_diagnostics_wt!G23-'optimization_diagnostics_wt(1)'!G23</f>
         <v>0</v>
       </c>
@@ -4947,7 +4938,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4981,7 +4972,7 @@
       <c r="C2">
         <v>5.7591382252151602E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f>B2-C2</f>
         <v>0</v>
       </c>
@@ -4996,7 +4987,7 @@
       <c r="C3">
         <v>0.26212402839708154</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D17" si="0">B3-C3</f>
         <v>0</v>
       </c>
@@ -5011,7 +5002,7 @@
       <c r="C4">
         <v>4.5168564931748092</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5026,7 +5017,7 @@
       <c r="C5">
         <v>1.3581243044260709</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5041,7 +5032,7 @@
       <c r="C6">
         <v>0.76411388816063042</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5056,7 +5047,7 @@
       <c r="C7">
         <v>2.6975637872373763</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5071,7 +5062,7 @@
       <c r="C8">
         <v>2.422825031475718</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5086,7 +5077,7 @@
       <c r="C9">
         <v>1.3441263322678942</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5101,7 +5092,7 @@
       <c r="C10">
         <v>-1.7451397466597762</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5116,7 +5107,7 @@
       <c r="C11">
         <v>1.3128831623982176</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5131,7 +5122,7 @@
       <c r="C12">
         <v>0.89612965557754209</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5146,7 +5137,7 @@
       <c r="C13">
         <v>1.2433807255932119</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5161,7 +5152,7 @@
       <c r="C14">
         <v>-3.3940648480900402</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5176,7 +5167,7 @@
       <c r="C15">
         <v>0.31282387775833193</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5191,7 +5182,7 @@
       <c r="C16">
         <v>2.9816172593664287</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5206,7 +5197,7 @@
       <c r="C17">
         <v>0.12653346989016581</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5220,7 +5211,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5253,7 +5246,7 @@
       <c r="C2">
         <v>5.7591382252151602E-2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <f>B2-C2</f>
         <v>0</v>
       </c>
@@ -5268,7 +5261,7 @@
       <c r="C3">
         <v>0.13386077051995146</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D17" si="0">B3-C3</f>
         <v>0</v>
       </c>
@@ -5283,7 +5276,7 @@
       <c r="C4">
         <v>0.29000495831757078</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5298,7 +5291,7 @@
       <c r="C5">
         <v>0.15817971463889477</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5313,7 +5306,7 @@
       <c r="C6">
         <v>1.5298861943696069</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5328,7 +5321,7 @@
       <c r="C7">
         <v>1.1528159878875472</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5343,7 +5336,7 @@
       <c r="C8">
         <v>0.18121602900685585</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5358,7 +5351,7 @@
       <c r="C9">
         <v>0.3601097594850155</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5373,7 +5366,7 @@
       <c r="C10">
         <v>2.3447714372178523</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5388,7 +5381,7 @@
       <c r="C11">
         <v>0.48329066717021735</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5403,7 +5396,7 @@
       <c r="C12">
         <v>0.57385254198006319</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5418,7 +5411,7 @@
       <c r="C13">
         <v>1.0066312765504999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5433,7 +5426,7 @@
       <c r="C14">
         <v>0.22781834436110557</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5448,7 +5441,7 @@
       <c r="C15">
         <v>0.15130237614051389</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5463,7 +5456,7 @@
       <c r="C16">
         <v>0.78559345347797105</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5478,7 +5471,7 @@
       <c r="C17">
         <v>0.12653346989016581</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
